--- a/src/com/noahkurrack/IFCommissions/assets/contract_detail_template.xlsx
+++ b/src/com/noahkurrack/IFCommissions/assets/contract_detail_template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16240" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -75,7 +75,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -101,14 +111,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -386,7 +402,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -436,7 +452,7 @@
       <c r="C4">
         <v>1</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>0</v>
       </c>
     </row>
@@ -444,7 +460,7 @@
       <c r="C5" t="s">
         <v>5</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>0</v>
       </c>
     </row>
@@ -452,7 +468,7 @@
       <c r="C6" t="s">
         <v>6</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>0</v>
       </c>
     </row>
@@ -460,7 +476,7 @@
       <c r="C7" t="s">
         <v>7</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>0</v>
       </c>
     </row>
@@ -468,15 +484,15 @@
       <c r="C8" t="s">
         <v>8</v>
       </c>
-      <c r="D8">
-        <v>0</v>
+      <c r="D8" s="2">
+        <v>0.17</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
         <v>9</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <v>0</v>
       </c>
     </row>
